--- a/data/stat probs/isaiah mobley stat probs - condition.xlsx
+++ b/data/stat probs/isaiah mobley stat probs - condition.xlsx
@@ -19,24 +19,24 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 before 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 before 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="90 after 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="90 after 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="orl 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hou 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 after 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 after 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 before 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12 before 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="90 after 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="90 after 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 full" sheetId="32" state="visible" r:id="rId32"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="90 before 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
@@ -549,28 +549,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1449,22 +1449,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1675,22 +1675,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1838,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1901,28 +1901,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1933,28 +1933,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1965,28 +1965,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1997,16 +1997,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2029,16 +2029,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2050,6 +2050,454 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2064,7 +2512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2127,28 +2575,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2159,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2191,28 +2639,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2223,16 +2671,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2255,16 +2703,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2276,6 +2724,454 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2353,28 +3249,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -2385,28 +3281,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -2417,16 +3313,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2435,10 +3331,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -2449,16 +3345,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2481,16 +3377,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2513,10 +3409,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2545,10 +3441,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2577,10 +3473,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2609,10 +3505,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2641,10 +3537,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2673,10 +3569,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2705,10 +3601,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2737,10 +3633,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -2769,10 +3665,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2801,10 +3697,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -2833,10 +3729,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2865,10 +3761,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -2897,10 +3793,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2929,10 +3825,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -3027,28 +3923,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -3059,28 +3955,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -3091,16 +3987,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3109,10 +4005,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -3123,16 +4019,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -3155,16 +4051,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3187,10 +4083,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3219,10 +4115,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3251,10 +4147,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3283,10 +4179,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3315,10 +4211,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -3347,10 +4243,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -3379,10 +4275,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -3411,10 +4307,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -3443,10 +4339,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -3475,10 +4371,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -3507,10 +4403,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3539,10 +4435,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -3571,10 +4467,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -3603,10 +4499,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -3701,28 +4597,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3733,28 +4629,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3765,16 +4661,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3783,10 +4679,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3797,16 +4693,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -3829,16 +4725,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3861,10 +4757,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3893,10 +4789,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3925,10 +4821,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3957,10 +4853,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3989,10 +4885,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -4021,10 +4917,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -4053,10 +4949,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -4085,10 +4981,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -4117,10 +5013,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -4149,10 +5045,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -4181,10 +5077,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -4213,10 +5109,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -4245,10 +5141,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -4277,10 +5173,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -4375,28 +5271,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +5303,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4439,16 +5335,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -4457,10 +5353,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4471,16 +5367,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -4503,16 +5399,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4535,10 +5431,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4567,10 +5463,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -4599,10 +5495,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -4631,10 +5527,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -4663,10 +5559,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -4695,10 +5591,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -4727,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -4759,10 +5655,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -4791,10 +5687,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -4823,10 +5719,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -4855,10 +5751,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -4887,10 +5783,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -4919,10 +5815,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -4951,10 +5847,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -4986,7 +5882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5071,582 +5967,6 @@
       </c>
       <c r="J2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>100</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>100</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>100</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>100</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>100</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5723,28 +6043,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -6334,7 +6654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6419,582 +6739,6 @@
       </c>
       <c r="J2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>100</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>100</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>100</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>100</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>100</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7400,7 +7144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7463,16 +7207,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7485,6 +7229,70 @@
       </c>
       <c r="J2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7498,7 +7306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7561,16 +7369,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7583,6 +7391,70 @@
       </c>
       <c r="J2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7659,16 +7531,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7821,16 +7693,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7983,16 +7855,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8145,22 +8017,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8371,16 +8243,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9121,16 +8993,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9347,16 +9219,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9573,16 +9445,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9799,22 +9671,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10025,16 +9897,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10251,16 +10123,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10445,16 +10317,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10639,10 +10511,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -10801,10 +10673,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -10969,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11099,10 +10971,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11229,10 +11101,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11359,10 +11231,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11489,10 +11361,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11645,28 +11517,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -12325,10 +12197,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12487,10 +12359,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12649,10 +12521,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12805,16 +12677,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12999,16 +12871,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13193,16 +13065,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13387,16 +13259,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13581,16 +13453,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13599,10 +13471,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13775,16 +13647,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13793,10 +13665,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13969,16 +13841,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13987,10 +13859,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14163,28 +14035,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -14837,16 +14709,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14855,10 +14727,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15031,16 +14903,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15049,10 +14921,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15225,16 +15097,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15243,10 +15115,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15419,22 +15291,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15645,22 +15517,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15871,22 +15743,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
